--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-03-using-the-aggregate-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-03-using-the-aggregate-function.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B92157D3-B9C0-4ECD-BA84-B04A9C5B8341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71B1B6C-7E62-42FA-91D3-57B262FE2FFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B8BD13-FBC6-4B3C-A11D-9A86FA5ACC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="1545" windowWidth="14685" windowHeight="12165" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
+    <workbookView xWindow="4932" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="AGGREGATE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AGGREGATE!$A$3:$B$14</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Total</t>
   </si>
@@ -77,6 +79,9 @@
   </si>
   <si>
     <t>Sportswear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -84,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -137,13 +142,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -407,22 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E06C8-E7E6-45D7-8698-CA7B553F3C55}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="11" width="6.69921875" customWidth="1"/>
+    <col min="12" max="12" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -430,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -438,7 +445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -446,7 +453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -455,7 +462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -463,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -471,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -479,7 +486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -488,7 +495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -496,7 +503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -504,7 +511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -512,7 +519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -520,37 +527,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <f>_xlfn.AGGREGATE(2,7,B5:B14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:B14" xr:uid="{018E06C8-E7E6-45D7-8698-CA7B553F3C55}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Blouse"/>
+        <filter val="Dress"/>
+        <filter val="Hat"/>
+        <filter val="Sportswear"/>
+        <filter val="Trousers"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
